--- a/Data/EC/NIT-8600080189.xlsx
+++ b/Data/EC/NIT-8600080189.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E168DB-1D5E-4B5F-B837-B7A7042C7DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C9E87B-E121-4A3C-B347-DF371B5D3D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80C5083D-9617-419F-AD8D-EEDC1E99C2A3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E66AC780-7AFC-44E4-8FAB-22ADC39C90CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,34 +65,34 @@
     <t>CC</t>
   </si>
   <si>
+    <t>79983489</t>
+  </si>
+  <si>
+    <t>CRISTHIAN JAVIER SASTOQUE MARTINEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>32905359</t>
+  </si>
+  <si>
+    <t>GISELA PAOLA FUENTES LACAYO</t>
+  </si>
+  <si>
+    <t>45556266</t>
+  </si>
+  <si>
+    <t>ANGELIA MARIA ANDRADE MADERA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
     <t>40035623</t>
   </si>
   <si>
     <t>MARIA MERCEDES DIAZ MOLINA</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>45556266</t>
-  </si>
-  <si>
-    <t>ANGELIA MARIA ANDRADE MADERA</t>
-  </si>
-  <si>
-    <t>32905359</t>
-  </si>
-  <si>
-    <t>GISELA PAOLA FUENTES LACAYO</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>79983489</t>
-  </si>
-  <si>
-    <t>CRISTHIAN JAVIER SASTOQUE MARTINEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C521CF67-6182-F576-CC86-3F0D04607468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F9EFAB-CDF2-67E2-8920-ADDD601859B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6596FD-1F9C-4BE2-9C10-B6B55FA9252B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ABD8FC-1F97-4A65-8C68-E5384ADF49A4}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>232818</v>
+        <v>257678</v>
       </c>
       <c r="G16" s="18">
-        <v>5820462</v>
+        <v>6441958</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>232818</v>
+        <v>257678</v>
       </c>
       <c r="G17" s="18">
-        <v>5820462</v>
+        <v>6441958</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,10 +1081,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>257678</v>
+        <v>232818</v>
       </c>
       <c r="G18" s="18">
-        <v>6441958</v>
+        <v>5820462</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1104,10 +1104,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="24">
-        <v>257678</v>
+        <v>232818</v>
       </c>
       <c r="G19" s="24">
-        <v>6441958</v>
+        <v>5820462</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
